--- a/data/Книга1.xlsx
+++ b/data/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\py\svarog2022_Tbot\tbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE4F06-74A2-4A04-80F4-8F6C05D4D9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB5CD9-22F1-4975-854B-49671B7DE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{492945B1-5650-4F79-A2C5-75E750FF24C5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Level 0</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>item_id</t>
+  </si>
+  <si>
+    <t>level 3</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA0482-620B-489C-854E-BF370D148575}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +592,7 @@
     <col min="5" max="5" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +602,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -612,7 +618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -624,7 +630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -636,7 +642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -655,7 +661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f>"    @dp.result"</f>
         <v xml:space="preserve">    @dp.result</v>
@@ -671,7 +677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -683,7 +689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -695,7 +701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -707,7 +713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -726,7 +732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f>"   @dp.event"</f>
         <v xml:space="preserve">   @dp.event</v>
@@ -742,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -754,7 +760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -766,7 +772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -785,7 +791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f>"   @dp.team"</f>
         <v xml:space="preserve">   @dp.team</v>
@@ -801,7 +807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -840,7 +846,7 @@
         <f>"@dp.subs_manager_event"</f>
         <v>@dp.subs_manager_event</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -856,7 +862,7 @@
         <f>"@dp.subs_manager_team"</f>
         <v>@dp.subs_manager_team</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/Книга1.xlsx
+++ b/data/Книга1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\py\svarog2022_Tbot\tbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB5CD9-22F1-4975-854B-49671B7DE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51E600-1186-4475-B371-A946FD49C09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{492945B1-5650-4F79-A2C5-75E750FF24C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Level 0</t>
   </si>
@@ -196,6 +197,9 @@
   </si>
   <si>
     <t>level 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -583,16 +587,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -618,7 +622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -630,7 +634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -642,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -661,7 +665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>"    @dp.result"</f>
         <v xml:space="preserve">    @dp.result</v>
@@ -677,7 +681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -689,7 +693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -701,7 +705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -713,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -732,7 +736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>"   @dp.event"</f>
         <v xml:space="preserve">   @dp.event</v>
@@ -748,7 +752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -760,7 +764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -772,7 +776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -791,7 +795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>"   @dp.team"</f>
         <v xml:space="preserve">   @dp.team</v>
@@ -807,7 +811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -819,7 +823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -831,7 +835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>"   @dp.subscribe"</f>
         <v xml:space="preserve">   @dp.subscribe</v>
@@ -866,7 +873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -879,7 +886,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -892,7 +899,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -906,7 +913,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
@@ -914,7 +921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>

--- a/data/Книга1.xlsx
+++ b/data/Книга1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\py\svarog2022_Tbot\tbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51E600-1186-4475-B371-A946FD49C09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA869A9D-5C14-4E16-861B-B2B09A8A3245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{492945B1-5650-4F79-A2C5-75E750FF24C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{492945B1-5650-4F79-A2C5-75E750FF24C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Level 0</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>level 0</t>
+  </si>
+  <si>
+    <t>добавление результатов</t>
+  </si>
+  <si>
+    <t>Изменение расписания</t>
+  </si>
+  <si>
+    <t>Экстренное сообщение</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>выбор конкурса</t>
+  </si>
+  <si>
+    <t>отправка сообщения</t>
   </si>
 </sst>
 </file>
@@ -583,20 +604,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA0482-620B-489C-854E-BF370D148575}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -622,7 +643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -634,7 +655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -646,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -665,7 +686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f>"    @dp.result"</f>
         <v xml:space="preserve">    @dp.result</v>
@@ -681,7 +702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -693,7 +714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -705,7 +726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -717,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -736,7 +757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f>"   @dp.event"</f>
         <v xml:space="preserve">   @dp.event</v>
@@ -752,7 +773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -764,7 +785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -776,7 +797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -795,7 +816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f>"   @dp.team"</f>
         <v xml:space="preserve">   @dp.team</v>
@@ -811,7 +832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -823,7 +844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -835,7 +856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -857,7 +878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f>"   @dp.subscribe"</f>
         <v xml:space="preserve">   @dp.subscribe</v>
@@ -873,7 +894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -886,7 +907,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -899,7 +920,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -913,7 +934,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
@@ -921,7 +942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -936,4 +957,59 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281FD9A5-7ED9-46C3-8CB0-CE641CE62993}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>